--- a/Hitachi笔记.xlsx
+++ b/Hitachi笔记.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ＱＧＨ\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\70989969\HitachiXPC\Downloads\Zeke1999-main\Zeke1999-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17B47AB-6CA6-450D-ACE8-A16B89B28EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AA31B7-B959-439C-904D-C73A1423B6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{63C7973F-25A7-4B8B-9F4E-1876B044384E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{63C7973F-25A7-4B8B-9F4E-1876B044384E}"/>
   </bookViews>
   <sheets>
     <sheet name="SpringBoot2" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <r>
       <rPr>
@@ -175,6 +175,47 @@
     </r>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <r>
+      <t>公司</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>VM中操作Junit5</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>导如Junit5依赖后，对着类右键new一个Junit实列(Junit case)</t>
+    <rPh sb="1" eb="2">
+      <t>ニョ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キサキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>チャク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -279,8 +320,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -874,11 +915,187 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>396248</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>56171</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12BA8BC3-EE30-25CA-AE8A-8141514E7198}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="25374600"/>
+          <a:ext cx="5019048" cy="7828571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>532095</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>46762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFDE6717-110D-5E40-5FFD-278639FC7A5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="33375600"/>
+          <a:ext cx="10438095" cy="6904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>376705</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>199286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F44A5A66-41EF-A6CD-A886-C621140B63A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="40462200"/>
+          <a:ext cx="8961905" cy="5914286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>291238</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>142171</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6D84D80-C0DD-9964-EC2A-09C5CEEFEE92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="46863000"/>
+          <a:ext cx="6895238" cy="5628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1166,7 +1383,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1180,19 +1397,19 @@
       <selection activeCell="J200" sqref="J200"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="2" t="s">
         <v>2</v>
       </c>
@@ -1200,33 +1417,44 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A4E034-5047-48B5-BDB4-FB96172ABE28}">
-  <dimension ref="A1:A110"/>
+  <dimension ref="A1:A205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="E111" sqref="E111"/>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="A206" sqref="A206"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A205" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1235,6 +1463,7 @@
     <hyperlink ref="A110" r:id="rId1" xr:uid="{34D3EC1A-9906-483D-B8FE-AD8390934852}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>